--- a/data/train_with_candidates.xlsx
+++ b/data/train_with_candidates.xlsx
@@ -1064,7 +1064,7 @@
   <cols>
     <col min="1" max="1" style="3" width="27.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="60.14785714285715" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>

--- a/data/train_with_candidates.xlsx
+++ b/data/train_with_candidates.xlsx
@@ -703,7 +703,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1068,7 +1068,7 @@
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
